--- a/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 1 Aula Procv.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/Aula 5/Procv 1 Aula Procv.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,15 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="tabela de preço" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Aline Carvalho</t>
   </si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>MENSALIDADE</t>
+  </si>
+  <si>
+    <t>novo preco</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -324,6 +330,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,7 +389,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6337023" y="0"/>
+          <a:off x="6432273" y="0"/>
           <a:ext cx="1169505" cy="361629"/>
           <a:chOff x="9009915" y="332447"/>
           <a:chExt cx="3182085" cy="978406"/>
@@ -573,6 +580,146 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabela Atual"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Inglês Básico</v>
+          </cell>
+          <cell r="C2">
+            <v>150</v>
+          </cell>
+          <cell r="D2">
+            <v>172.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Inglês Intermediário</v>
+          </cell>
+          <cell r="C3">
+            <v>180</v>
+          </cell>
+          <cell r="D3">
+            <v>207</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Inglês Avançado</v>
+          </cell>
+          <cell r="C4">
+            <v>270</v>
+          </cell>
+          <cell r="D4">
+            <v>310.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Espanhol Básico</v>
+          </cell>
+          <cell r="C5">
+            <v>130</v>
+          </cell>
+          <cell r="D5">
+            <v>149.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Espanhol Intermediário</v>
+          </cell>
+          <cell r="C6">
+            <v>180</v>
+          </cell>
+          <cell r="D6">
+            <v>207</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Espanhol Avançado</v>
+          </cell>
+          <cell r="C7">
+            <v>230</v>
+          </cell>
+          <cell r="D7">
+            <v>264.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Francês Básico</v>
+          </cell>
+          <cell r="C8">
+            <v>170</v>
+          </cell>
+          <cell r="D8">
+            <v>195.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Francês Intermediário</v>
+          </cell>
+          <cell r="C9">
+            <v>217</v>
+          </cell>
+          <cell r="D9">
+            <v>249.55</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Francês Avançado</v>
+          </cell>
+          <cell r="C10">
+            <v>280</v>
+          </cell>
+          <cell r="D10">
+            <v>322</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,7 +1046,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,49 +1056,50 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,6 +1112,9 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -976,7 +1127,14 @@
         <f>VLOOKUP(C9,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <f>VLOOKUP(D9,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F9" s="11">
+        <f>VLOOKUP(C9,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -989,7 +1147,14 @@
         <f>VLOOKUP(C10,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <f>VLOOKUP(D10,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F10" s="11">
+        <f>VLOOKUP(C10,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>310.5</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1002,7 +1167,14 @@
         <f>VLOOKUP(C11,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <f>VLOOKUP(D11,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F11" s="11">
+        <f>VLOOKUP(C11,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>207</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1015,7 +1187,14 @@
         <f>VLOOKUP(C12,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <f>VLOOKUP(D12,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F12" s="11">
+        <f>VLOOKUP(C12,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>310.5</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1028,7 +1207,14 @@
         <f>VLOOKUP(C13,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <f>VLOOKUP(D13,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F13" s="11">
+        <f>VLOOKUP(C13,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>172.5</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -1041,7 +1227,14 @@
         <f>VLOOKUP(C14,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <f>VLOOKUP(D14,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F14" s="11">
+        <f>VLOOKUP(C14,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>149.5</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -1054,7 +1247,14 @@
         <f>VLOOKUP(C15,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7">
+        <f>VLOOKUP(D15,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F15" s="11">
+        <f>VLOOKUP(C15,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>172.5</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -1067,9 +1267,16 @@
         <f>VLOOKUP(C16,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7">
+        <f>VLOOKUP(D16,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F16" s="11">
+        <f>VLOOKUP(C16,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1080,9 +1287,16 @@
         <f>VLOOKUP(C17,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7">
+        <f>VLOOKUP(D17,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F17" s="11">
+        <f>VLOOKUP(C17,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,9 +1307,16 @@
         <f>VLOOKUP(C18,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7">
+        <f>VLOOKUP(D18,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F18" s="11">
+        <f>VLOOKUP(C18,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,9 +1327,16 @@
         <f>VLOOKUP(C19,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7">
+        <f>VLOOKUP(D19,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F19" s="11">
+        <f>VLOOKUP(C19,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,9 +1347,16 @@
         <f>VLOOKUP(C20,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Intermediário</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7">
+        <f>VLOOKUP(D20,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="F20" s="11">
+        <f>VLOOKUP(C20,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>249.55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1132,9 +1367,16 @@
         <f>VLOOKUP(C21,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Avançado</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7">
+        <f>VLOOKUP(D21,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F21" s="11">
+        <f>VLOOKUP(C21,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,9 +1387,16 @@
         <f>VLOOKUP(C22,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Intermediário</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="7">
+        <f>VLOOKUP(D22,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F22" s="11">
+        <f>VLOOKUP(C22,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,9 +1407,16 @@
         <f>VLOOKUP(C23,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Avançado</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7">
+        <f>VLOOKUP(D23,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F23" s="11">
+        <f>VLOOKUP(C23,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1171,9 +1427,16 @@
         <f>VLOOKUP(C24,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Básico</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7">
+        <f>VLOOKUP(D24,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F24" s="11">
+        <f>VLOOKUP(C24,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,9 +1447,16 @@
         <f>VLOOKUP(C25,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Avançado</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="7">
+        <f>VLOOKUP(D25,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="F25" s="11">
+        <f>VLOOKUP(C25,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,9 +1467,16 @@
         <f>VLOOKUP(C26,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Inglês Básico</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="7">
+        <f>VLOOKUP(D26,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="F26" s="11">
+        <f>VLOOKUP(C26,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1210,9 +1487,16 @@
         <f>VLOOKUP(C27,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Intermediário</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="7">
+        <f>VLOOKUP(D27,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="F27" s="11">
+        <f>VLOOKUP(C27,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>249.55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1223,9 +1507,16 @@
         <f>VLOOKUP(C28,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Espanhol Intermediário</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="7">
+        <f>VLOOKUP(D28,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F28" s="11">
+        <f>VLOOKUP(C28,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,9 +1527,16 @@
         <f>VLOOKUP(C29,'tabela de preço'!$A$2:$C$10,2,0)</f>
         <v>Francês Básico</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E29" s="7">
+        <f>VLOOKUP(D29,'tabela de preço'!$B$2:$C$10,2,FALSE)</f>
+        <v>170</v>
+      </c>
+      <c r="F29" s="11">
+        <f>VLOOKUP(C29,'[1]Tabela Atual'!$A$2:$D$10,4,FALSE)</f>
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:H6"/>
